--- a/ProbableCasesOverTimeByCounty/2021-02-26.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-02-26.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/25/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/26/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>Probable 2021-02-25</t>
+  </si>
+  <si>
+    <t>Probable 2021-02-26</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1367,6 +1370,7 @@
     <col min="116" max="116" width="12.0" customWidth="true"/>
     <col min="117" max="117" width="12.0" customWidth="true"/>
     <col min="118" max="118" width="12.0" customWidth="true"/>
+    <col min="119" max="119" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1734,10 +1738,13 @@
       <c r="DN3" t="s" s="10">
         <v>119</v>
       </c>
+      <c r="DO3" t="s" s="10">
+        <v>120</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -2089,11 +2096,14 @@
       </c>
       <c r="DN4" t="n">
         <v>1242.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>1246.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2444,12 +2454,15 @@
         <v>0.0</v>
       </c>
       <c r="DN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2800,12 +2813,15 @@
         <v>3233.0</v>
       </c>
       <c r="DN6" t="n">
+        <v>3233.0</v>
+      </c>
+      <c r="DO6" t="n">
         <v>3233.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -3157,11 +3173,14 @@
       </c>
       <c r="DN7" t="n">
         <v>269.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>270.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -3513,11 +3532,14 @@
       </c>
       <c r="DN8" t="n">
         <v>93.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3868,12 +3890,15 @@
         <v>42.0</v>
       </c>
       <c r="DN9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DO9" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -4225,11 +4250,14 @@
       </c>
       <c r="DN10" t="n">
         <v>1322.0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>1325.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -4581,11 +4609,14 @@
       </c>
       <c r="DN11" t="n">
         <v>272.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>275.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -4936,12 +4967,15 @@
         <v>211.0</v>
       </c>
       <c r="DN12" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="DO12" t="n">
         <v>211.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -5293,11 +5327,14 @@
       </c>
       <c r="DN13" t="n">
         <v>351.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>353.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -5649,11 +5686,14 @@
       </c>
       <c r="DN14" t="n">
         <v>1866.0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>1869.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -6004,12 +6044,15 @@
         <v>169.0</v>
       </c>
       <c r="DN15" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="DO15" t="n">
         <v>169.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -6361,11 +6404,14 @@
       </c>
       <c r="DN16" t="n">
         <v>367.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>371.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6716,12 +6762,15 @@
         <v>0.0</v>
       </c>
       <c r="DN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -7073,11 +7122,14 @@
       </c>
       <c r="DN18" t="n">
         <v>30064.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>30144.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -7428,12 +7480,15 @@
         <v>112.0</v>
       </c>
       <c r="DN19" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="DO19" t="n">
         <v>113.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -7784,12 +7839,15 @@
         <v>7.0</v>
       </c>
       <c r="DN20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DO20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -8140,12 +8198,15 @@
         <v>288.0</v>
       </c>
       <c r="DN21" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="DO21" t="n">
         <v>289.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -8497,11 +8558,14 @@
       </c>
       <c r="DN22" t="n">
         <v>1971.0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>1984.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -8853,11 +8917,14 @@
       </c>
       <c r="DN23" t="n">
         <v>4727.0</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>4811.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -9208,12 +9275,15 @@
         <v>3603.0</v>
       </c>
       <c r="DN24" t="n">
+        <v>3624.0</v>
+      </c>
+      <c r="DO24" t="n">
         <v>3624.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -9564,12 +9634,15 @@
         <v>81.0</v>
       </c>
       <c r="DN25" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="DO25" t="n">
         <v>80.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -9920,12 +9993,15 @@
         <v>59.0</v>
       </c>
       <c r="DN26" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="DO26" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -10277,11 +10353,14 @@
       </c>
       <c r="DN27" t="n">
         <v>106.0</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -10632,12 +10711,15 @@
         <v>2161.0</v>
       </c>
       <c r="DN28" t="n">
+        <v>2161.0</v>
+      </c>
+      <c r="DO28" t="n">
         <v>2161.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -10988,12 +11070,15 @@
         <v>389.0</v>
       </c>
       <c r="DN29" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="DO29" t="n">
         <v>390.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -11345,11 +11430,14 @@
       </c>
       <c r="DN30" t="n">
         <v>419.0</v>
+      </c>
+      <c r="DO30" t="n">
+        <v>425.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -11701,11 +11789,14 @@
       </c>
       <c r="DN31" t="n">
         <v>273.0</v>
+      </c>
+      <c r="DO31" t="n">
+        <v>279.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -12057,11 +12148,14 @@
       </c>
       <c r="DN32" t="n">
         <v>379.0</v>
+      </c>
+      <c r="DO32" t="n">
+        <v>378.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -12413,11 +12507,14 @@
       </c>
       <c r="DN33" t="n">
         <v>550.0</v>
+      </c>
+      <c r="DO33" t="n">
+        <v>553.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -12768,12 +12865,15 @@
         <v>0.0</v>
       </c>
       <c r="DN34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -13125,11 +13225,14 @@
       </c>
       <c r="DN35" t="n">
         <v>381.0</v>
+      </c>
+      <c r="DO35" t="n">
+        <v>383.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -13480,12 +13583,15 @@
         <v>144.0</v>
       </c>
       <c r="DN36" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="DO36" t="n">
         <v>146.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -13837,11 +13943,14 @@
       </c>
       <c r="DN37" t="n">
         <v>659.0</v>
+      </c>
+      <c r="DO37" t="n">
+        <v>660.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -14192,12 +14301,15 @@
         <v>250.0</v>
       </c>
       <c r="DN38" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="DO38" t="n">
         <v>250.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -14548,12 +14660,15 @@
         <v>0.0</v>
       </c>
       <c r="DN39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -14904,12 +15019,15 @@
         <v>1805.0</v>
       </c>
       <c r="DN40" t="n">
+        <v>1808.0</v>
+      </c>
+      <c r="DO40" t="n">
         <v>1808.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -15260,12 +15378,15 @@
         <v>24.0</v>
       </c>
       <c r="DN41" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DO41" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -15616,12 +15737,15 @@
         <v>78.0</v>
       </c>
       <c r="DN42" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DO42" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -15973,11 +16097,14 @@
       </c>
       <c r="DN43" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DO43" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -16328,12 +16455,15 @@
         <v>224.0</v>
       </c>
       <c r="DN44" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="DO44" t="n">
         <v>223.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -16685,11 +16815,14 @@
       </c>
       <c r="DN45" t="n">
         <v>234.0</v>
+      </c>
+      <c r="DO45" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -17041,11 +17174,14 @@
       </c>
       <c r="DN46" t="n">
         <v>12937.0</v>
+      </c>
+      <c r="DO46" t="n">
+        <v>13103.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -17396,12 +17532,15 @@
         <v>70.0</v>
       </c>
       <c r="DN47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DO47" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -17753,11 +17892,14 @@
       </c>
       <c r="DN48" t="n">
         <v>245.0</v>
+      </c>
+      <c r="DO48" t="n">
+        <v>246.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -18109,11 +18251,14 @@
       </c>
       <c r="DN49" t="n">
         <v>4259.0</v>
+      </c>
+      <c r="DO49" t="n">
+        <v>4291.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -18465,11 +18610,14 @@
       </c>
       <c r="DN50" t="n">
         <v>266.0</v>
+      </c>
+      <c r="DO50" t="n">
+        <v>298.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -18820,12 +18968,15 @@
         <v>139.0</v>
       </c>
       <c r="DN51" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="DO51" t="n">
         <v>139.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -19177,11 +19328,14 @@
       </c>
       <c r="DN52" t="n">
         <v>405.0</v>
+      </c>
+      <c r="DO52" t="n">
+        <v>406.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -19533,11 +19687,14 @@
       </c>
       <c r="DN53" t="n">
         <v>237.0</v>
+      </c>
+      <c r="DO53" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -19888,12 +20045,15 @@
         <v>46.0</v>
       </c>
       <c r="DN54" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DO54" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -20244,12 +20404,15 @@
         <v>305.0</v>
       </c>
       <c r="DN55" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="DO55" t="n">
         <v>306.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -20600,12 +20763,15 @@
         <v>353.0</v>
       </c>
       <c r="DN56" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="DO56" t="n">
         <v>353.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -20956,12 +21122,15 @@
         <v>195.0</v>
       </c>
       <c r="DN57" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="DO57" t="n">
         <v>195.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -21312,12 +21481,15 @@
         <v>23.0</v>
       </c>
       <c r="DN58" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DO58" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -21669,11 +21841,14 @@
       </c>
       <c r="DN59" t="n">
         <v>65.0</v>
+      </c>
+      <c r="DO59" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -22025,11 +22200,14 @@
       </c>
       <c r="DN60" t="n">
         <v>34647.0</v>
+      </c>
+      <c r="DO60" t="n">
+        <v>34773.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -22380,12 +22558,15 @@
         <v>0.0</v>
       </c>
       <c r="DN61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -22737,11 +22918,14 @@
       </c>
       <c r="DN62" t="n">
         <v>647.0</v>
+      </c>
+      <c r="DO62" t="n">
+        <v>644.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -23092,12 +23276,15 @@
         <v>124.0</v>
       </c>
       <c r="DN63" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="DO63" t="n">
         <v>124.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -23449,11 +23636,14 @@
       </c>
       <c r="DN64" t="n">
         <v>14676.0</v>
+      </c>
+      <c r="DO64" t="n">
+        <v>14812.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -23804,12 +23994,15 @@
         <v>0.0</v>
       </c>
       <c r="DN65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -24160,12 +24353,15 @@
         <v>58.0</v>
       </c>
       <c r="DN66" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DO66" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -24516,12 +24712,15 @@
         <v>179.0</v>
       </c>
       <c r="DN67" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="DO67" t="n">
         <v>181.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -24872,12 +25071,15 @@
         <v>174.0</v>
       </c>
       <c r="DN68" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DO68" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -25229,11 +25431,14 @@
       </c>
       <c r="DN69" t="n">
         <v>93.0</v>
+      </c>
+      <c r="DO69" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -25585,11 +25790,14 @@
       </c>
       <c r="DN70" t="n">
         <v>358.0</v>
+      </c>
+      <c r="DO70" t="n">
+        <v>363.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -25941,11 +26149,14 @@
       </c>
       <c r="DN71" t="n">
         <v>7908.0</v>
+      </c>
+      <c r="DO71" t="n">
+        <v>7935.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -26296,12 +26507,15 @@
         <v>45.0</v>
       </c>
       <c r="DN72" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DO72" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -26653,11 +26867,14 @@
       </c>
       <c r="DN73" t="n">
         <v>2730.0</v>
+      </c>
+      <c r="DO73" t="n">
+        <v>2750.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -27008,12 +27225,15 @@
         <v>0.0</v>
       </c>
       <c r="DN74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -27365,11 +27585,14 @@
       </c>
       <c r="DN75" t="n">
         <v>1243.0</v>
+      </c>
+      <c r="DO75" t="n">
+        <v>1249.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -27720,12 +27943,15 @@
         <v>157.0</v>
       </c>
       <c r="DN76" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="DO76" t="n">
         <v>157.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -28077,11 +28303,14 @@
       </c>
       <c r="DN77" t="n">
         <v>668.0</v>
+      </c>
+      <c r="DO77" t="n">
+        <v>673.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -28433,11 +28662,14 @@
       </c>
       <c r="DN78" t="n">
         <v>853.0</v>
+      </c>
+      <c r="DO78" t="n">
+        <v>855.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -28788,12 +29020,15 @@
         <v>0.0</v>
       </c>
       <c r="DN79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -29144,12 +29379,15 @@
         <v>443.0</v>
       </c>
       <c r="DN80" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="DO80" t="n">
         <v>443.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -29500,12 +29738,15 @@
         <v>32.0</v>
       </c>
       <c r="DN81" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DO81" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -29857,11 +30098,14 @@
       </c>
       <c r="DN82" t="n">
         <v>7053.0</v>
+      </c>
+      <c r="DO82" t="n">
+        <v>7149.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -30212,12 +30456,15 @@
         <v>208.0</v>
       </c>
       <c r="DN83" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="DO83" t="n">
         <v>209.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -30569,11 +30816,14 @@
       </c>
       <c r="DN84" t="n">
         <v>703.0</v>
+      </c>
+      <c r="DO84" t="n">
+        <v>707.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -30925,11 +31175,14 @@
       </c>
       <c r="DN85" t="n">
         <v>564.0</v>
+      </c>
+      <c r="DO85" t="n">
+        <v>565.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -31280,12 +31533,15 @@
         <v>0.0</v>
       </c>
       <c r="DN86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -31637,11 +31893,14 @@
       </c>
       <c r="DN87" t="n">
         <v>4611.0</v>
+      </c>
+      <c r="DO87" t="n">
+        <v>4652.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -31993,11 +32252,14 @@
       </c>
       <c r="DN88" t="n">
         <v>150.0</v>
+      </c>
+      <c r="DO88" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -32349,11 +32611,14 @@
       </c>
       <c r="DN89" t="n">
         <v>770.0</v>
+      </c>
+      <c r="DO89" t="n">
+        <v>780.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -32704,12 +32969,15 @@
         <v>62.0</v>
       </c>
       <c r="DN90" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="DO90" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -33060,12 +33328,15 @@
         <v>133.0</v>
       </c>
       <c r="DN91" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="DO91" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -33417,11 +33688,14 @@
       </c>
       <c r="DN92" t="n">
         <v>333.0</v>
+      </c>
+      <c r="DO92" t="n">
+        <v>334.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -33772,12 +34046,15 @@
         <v>284.0</v>
       </c>
       <c r="DN93" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="DO93" t="n">
         <v>284.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -34128,12 +34405,15 @@
         <v>0.0</v>
       </c>
       <c r="DN94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -34485,11 +34765,14 @@
       </c>
       <c r="DN95" t="n">
         <v>4744.0</v>
+      </c>
+      <c r="DO95" t="n">
+        <v>4762.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -34841,11 +35124,14 @@
       </c>
       <c r="DN96" t="n">
         <v>309.0</v>
+      </c>
+      <c r="DO96" t="n">
+        <v>308.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -35197,11 +35483,14 @@
       </c>
       <c r="DN97" t="n">
         <v>3177.0</v>
+      </c>
+      <c r="DO97" t="n">
+        <v>3188.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -35552,12 +35841,15 @@
         <v>0.0</v>
       </c>
       <c r="DN98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -35908,12 +36200,15 @@
         <v>98.0</v>
       </c>
       <c r="DN99" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="DO99" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -36264,12 +36559,15 @@
         <v>50.0</v>
       </c>
       <c r="DN100" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DO100" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -36620,12 +36918,15 @@
         <v>448.0</v>
       </c>
       <c r="DN101" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="DO101" t="n">
         <v>446.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -36976,12 +37277,15 @@
         <v>55.0</v>
       </c>
       <c r="DN102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DO102" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -37333,11 +37637,14 @@
       </c>
       <c r="DN103" t="n">
         <v>2409.0</v>
+      </c>
+      <c r="DO103" t="n">
+        <v>2466.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -37688,12 +37995,15 @@
         <v>0.0</v>
       </c>
       <c r="DN104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -38045,11 +38355,14 @@
       </c>
       <c r="DN105" t="n">
         <v>2208.0</v>
+      </c>
+      <c r="DO105" t="n">
+        <v>2214.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -38400,12 +38713,15 @@
         <v>68.0</v>
       </c>
       <c r="DN106" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="DO106" t="n">
         <v>67.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -38757,11 +39073,14 @@
       </c>
       <c r="DN107" t="n">
         <v>234.0</v>
+      </c>
+      <c r="DO107" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -39113,11 +39432,14 @@
       </c>
       <c r="DN108" t="n">
         <v>1775.0</v>
+      </c>
+      <c r="DO108" t="n">
+        <v>1787.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -39468,12 +39790,15 @@
         <v>41.0</v>
       </c>
       <c r="DN109" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="DO109" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -39825,11 +40150,14 @@
       </c>
       <c r="DN110" t="n">
         <v>1816.0</v>
+      </c>
+      <c r="DO110" t="n">
+        <v>1830.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -40181,11 +40509,14 @@
       </c>
       <c r="DN111" t="n">
         <v>23721.0</v>
+      </c>
+      <c r="DO111" t="n">
+        <v>24183.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -40537,11 +40868,14 @@
       </c>
       <c r="DN112" t="n">
         <v>650.0</v>
+      </c>
+      <c r="DO112" t="n">
+        <v>655.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -40893,11 +41227,14 @@
       </c>
       <c r="DN113" t="n">
         <v>269.0</v>
+      </c>
+      <c r="DO113" t="n">
+        <v>270.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -41249,11 +41586,14 @@
       </c>
       <c r="DN114" t="n">
         <v>2063.0</v>
+      </c>
+      <c r="DO114" t="n">
+        <v>2065.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -41605,11 +41945,14 @@
       </c>
       <c r="DN115" t="n">
         <v>1398.0</v>
+      </c>
+      <c r="DO115" t="n">
+        <v>1403.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -41961,11 +42304,14 @@
       </c>
       <c r="DN116" t="n">
         <v>681.0</v>
+      </c>
+      <c r="DO116" t="n">
+        <v>685.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -42317,11 +42663,14 @@
       </c>
       <c r="DN117" t="n">
         <v>1512.0</v>
+      </c>
+      <c r="DO117" t="n">
+        <v>1513.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -42672,12 +43021,15 @@
         <v>79.0</v>
       </c>
       <c r="DN118" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="DO118" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -43028,12 +43380,15 @@
         <v>0.0</v>
       </c>
       <c r="DN119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -43385,11 +43740,14 @@
       </c>
       <c r="DN120" t="n">
         <v>468.0</v>
+      </c>
+      <c r="DO120" t="n">
+        <v>469.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -43740,12 +44098,15 @@
         <v>65.0</v>
       </c>
       <c r="DN121" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="DO121" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -44096,12 +44457,15 @@
         <v>76.0</v>
       </c>
       <c r="DN122" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="DO122" t="n">
         <v>77.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -44452,12 +44816,15 @@
         <v>239.0</v>
       </c>
       <c r="DN123" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="DO123" t="n">
         <v>240.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -44808,12 +45175,15 @@
         <v>1381.0</v>
       </c>
       <c r="DN124" t="n">
+        <v>1381.0</v>
+      </c>
+      <c r="DO124" t="n">
         <v>1381.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -45164,12 +45534,15 @@
         <v>39.0</v>
       </c>
       <c r="DN125" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DO125" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -45520,12 +45893,15 @@
         <v>0.0</v>
       </c>
       <c r="DN126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -45876,12 +46252,15 @@
         <v>31.0</v>
       </c>
       <c r="DN127" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DO127" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -46233,11 +46612,14 @@
       </c>
       <c r="DN128" t="n">
         <v>416.0</v>
+      </c>
+      <c r="DO128" t="n">
+        <v>425.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -46589,11 +46971,14 @@
       </c>
       <c r="DN129" t="n">
         <v>2452.0</v>
+      </c>
+      <c r="DO129" t="n">
+        <v>2473.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -46945,11 +47330,14 @@
       </c>
       <c r="DN130" t="n">
         <v>666.0</v>
+      </c>
+      <c r="DO130" t="n">
+        <v>669.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -47301,11 +47689,14 @@
       </c>
       <c r="DN131" t="n">
         <v>190.0</v>
+      </c>
+      <c r="DO131" t="n">
+        <v>191.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -47657,11 +48048,14 @@
       </c>
       <c r="DN132" t="n">
         <v>2114.0</v>
+      </c>
+      <c r="DO132" t="n">
+        <v>2140.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -48013,11 +48407,14 @@
       </c>
       <c r="DN133" t="n">
         <v>1351.0</v>
+      </c>
+      <c r="DO133" t="n">
+        <v>1368.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -48368,12 +48765,15 @@
         <v>16.0</v>
       </c>
       <c r="DN134" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DO134" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -48725,11 +49125,14 @@
       </c>
       <c r="DN135" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DO135" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -49081,11 +49484,14 @@
       </c>
       <c r="DN136" t="n">
         <v>2034.0</v>
+      </c>
+      <c r="DO136" t="n">
+        <v>2035.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -49436,12 +49842,15 @@
         <v>52.0</v>
       </c>
       <c r="DN137" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DO137" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -49792,12 +50201,15 @@
         <v>6.0</v>
       </c>
       <c r="DN138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DO138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -50148,12 +50560,15 @@
         <v>13.0</v>
       </c>
       <c r="DN139" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="DO139" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -50505,11 +50920,14 @@
       </c>
       <c r="DN140" t="n">
         <v>551.0</v>
+      </c>
+      <c r="DO140" t="n">
+        <v>550.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -50860,12 +51278,15 @@
         <v>83.0</v>
       </c>
       <c r="DN141" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="DO141" t="n">
         <v>83.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -51217,11 +51638,14 @@
       </c>
       <c r="DN142" t="n">
         <v>3042.0</v>
+      </c>
+      <c r="DO142" t="n">
+        <v>3052.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -51572,12 +51996,15 @@
         <v>432.0</v>
       </c>
       <c r="DN143" t="n">
+        <v>431.0</v>
+      </c>
+      <c r="DO143" t="n">
         <v>431.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -51928,12 +52355,15 @@
         <v>319.0</v>
       </c>
       <c r="DN144" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="DO144" t="n">
         <v>321.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -52285,11 +52715,14 @@
       </c>
       <c r="DN145" t="n">
         <v>61.0</v>
+      </c>
+      <c r="DO145" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -52641,11 +53074,14 @@
       </c>
       <c r="DN146" t="n">
         <v>429.0</v>
+      </c>
+      <c r="DO146" t="n">
+        <v>431.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -52997,11 +53433,14 @@
       </c>
       <c r="DN147" t="n">
         <v>1048.0</v>
+      </c>
+      <c r="DO147" t="n">
+        <v>1051.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -53352,12 +53791,15 @@
         <v>324.0</v>
       </c>
       <c r="DN148" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="DO148" t="n">
         <v>324.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -53709,11 +54151,14 @@
       </c>
       <c r="DN149" t="n">
         <v>1524.0</v>
+      </c>
+      <c r="DO149" t="n">
+        <v>1546.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -54064,12 +54509,15 @@
         <v>561.0</v>
       </c>
       <c r="DN150" t="n">
+        <v>564.0</v>
+      </c>
+      <c r="DO150" t="n">
         <v>564.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -54420,12 +54868,15 @@
         <v>23.0</v>
       </c>
       <c r="DN151" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DO151" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -54776,12 +55227,15 @@
         <v>249.0</v>
       </c>
       <c r="DN152" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="DO152" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -55133,11 +55587,14 @@
       </c>
       <c r="DN153" t="n">
         <v>424.0</v>
+      </c>
+      <c r="DO153" t="n">
+        <v>429.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -55488,12 +55945,15 @@
         <v>0.0</v>
       </c>
       <c r="DN154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -55844,12 +56304,15 @@
         <v>0.0</v>
       </c>
       <c r="DN155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -56200,12 +56663,15 @@
         <v>0.0</v>
       </c>
       <c r="DN156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -56557,11 +57023,14 @@
       </c>
       <c r="DN157" t="n">
         <v>153.0</v>
+      </c>
+      <c r="DO157" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -56912,12 +57381,15 @@
         <v>0.0</v>
       </c>
       <c r="DN158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -57268,12 +57740,15 @@
         <v>19.0</v>
       </c>
       <c r="DN159" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DO159" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -57624,12 +58099,15 @@
         <v>217.0</v>
       </c>
       <c r="DN160" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="DO160" t="n">
         <v>217.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -57981,11 +58459,14 @@
       </c>
       <c r="DN161" t="n">
         <v>179.0</v>
+      </c>
+      <c r="DO161" t="n">
+        <v>180.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -58336,12 +58817,15 @@
         <v>253.0</v>
       </c>
       <c r="DN162" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="DO162" t="n">
         <v>253.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -58692,12 +59176,15 @@
         <v>146.0</v>
       </c>
       <c r="DN163" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="DO163" t="n">
         <v>145.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -59049,11 +59536,14 @@
       </c>
       <c r="DN164" t="n">
         <v>372.0</v>
+      </c>
+      <c r="DO164" t="n">
+        <v>374.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -59404,12 +59894,15 @@
         <v>0.0</v>
       </c>
       <c r="DN165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -59760,12 +60253,15 @@
         <v>934.0</v>
       </c>
       <c r="DN166" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="DO166" t="n">
         <v>950.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -60116,12 +60612,15 @@
         <v>66.0</v>
       </c>
       <c r="DN167" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="DO167" t="n">
         <v>66.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -60472,12 +60971,15 @@
         <v>0.0</v>
       </c>
       <c r="DN168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -60828,12 +61330,15 @@
         <v>991.0</v>
       </c>
       <c r="DN169" t="n">
+        <v>991.0</v>
+      </c>
+      <c r="DO169" t="n">
         <v>991.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -61185,11 +61690,14 @@
       </c>
       <c r="DN170" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DO170" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -61540,12 +62048,15 @@
         <v>0.0</v>
       </c>
       <c r="DN171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -61897,11 +62408,14 @@
       </c>
       <c r="DN172" t="n">
         <v>299.0</v>
+      </c>
+      <c r="DO172" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -62253,11 +62767,14 @@
       </c>
       <c r="DN173" t="n">
         <v>8041.0</v>
+      </c>
+      <c r="DO173" t="n">
+        <v>8113.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -62608,12 +63125,15 @@
         <v>300.0</v>
       </c>
       <c r="DN174" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="DO174" t="n">
         <v>301.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -62964,12 +63484,15 @@
         <v>267.0</v>
       </c>
       <c r="DN175" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="DO175" t="n">
         <v>267.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -63320,12 +63843,15 @@
         <v>49.0</v>
       </c>
       <c r="DN176" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DO176" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -63677,11 +64203,14 @@
       </c>
       <c r="DN177" t="n">
         <v>929.0</v>
+      </c>
+      <c r="DO177" t="n">
+        <v>931.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -64032,12 +64561,15 @@
         <v>2130.0</v>
       </c>
       <c r="DN178" t="n">
+        <v>2130.0</v>
+      </c>
+      <c r="DO178" t="n">
         <v>2130.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -64388,12 +64920,15 @@
         <v>289.0</v>
       </c>
       <c r="DN179" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="DO179" t="n">
         <v>290.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -64744,12 +65279,15 @@
         <v>0.0</v>
       </c>
       <c r="DN180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -65101,11 +65639,14 @@
       </c>
       <c r="DN181" t="n">
         <v>10014.0</v>
+      </c>
+      <c r="DO181" t="n">
+        <v>10045.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -65456,12 +65997,15 @@
         <v>106.0</v>
       </c>
       <c r="DN182" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DO182" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -65812,12 +66356,15 @@
         <v>129.0</v>
       </c>
       <c r="DN183" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="DO183" t="n">
         <v>129.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -66169,11 +66716,14 @@
       </c>
       <c r="DN184" t="n">
         <v>3671.0</v>
+      </c>
+      <c r="DO184" t="n">
+        <v>3755.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -66525,11 +67075,14 @@
       </c>
       <c r="DN185" t="n">
         <v>368.0</v>
+      </c>
+      <c r="DO185" t="n">
+        <v>369.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -66881,11 +67434,14 @@
       </c>
       <c r="DN186" t="n">
         <v>550.0</v>
+      </c>
+      <c r="DO186" t="n">
+        <v>555.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -67237,11 +67793,14 @@
       </c>
       <c r="DN187" t="n">
         <v>2821.0</v>
+      </c>
+      <c r="DO187" t="n">
+        <v>2851.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -67593,11 +68152,14 @@
       </c>
       <c r="DN188" t="n">
         <v>338.0</v>
+      </c>
+      <c r="DO188" t="n">
+        <v>339.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -67949,11 +68511,14 @@
       </c>
       <c r="DN189" t="n">
         <v>275.0</v>
+      </c>
+      <c r="DO189" t="n">
+        <v>278.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -68304,12 +68869,15 @@
         <v>1561.0</v>
       </c>
       <c r="DN190" t="n">
+        <v>1561.0</v>
+      </c>
+      <c r="DO190" t="n">
         <v>1561.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -68660,12 +69228,15 @@
         <v>0.0</v>
       </c>
       <c r="DN191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -69016,12 +69587,15 @@
         <v>166.0</v>
       </c>
       <c r="DN192" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="DO192" t="n">
         <v>164.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -69373,11 +69947,14 @@
       </c>
       <c r="DN193" t="n">
         <v>371.0</v>
+      </c>
+      <c r="DO193" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -69728,12 +70305,15 @@
         <v>0.0</v>
       </c>
       <c r="DN194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -70084,12 +70664,15 @@
         <v>174.0</v>
       </c>
       <c r="DN195" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DO195" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -70440,12 +71023,15 @@
         <v>34.0</v>
       </c>
       <c r="DN196" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="DO196" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -70797,11 +71383,14 @@
       </c>
       <c r="DN197" t="n">
         <v>253.0</v>
+      </c>
+      <c r="DO197" t="n">
+        <v>254.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -71153,11 +71742,14 @@
       </c>
       <c r="DN198" t="n">
         <v>707.0</v>
+      </c>
+      <c r="DO198" t="n">
+        <v>708.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -71508,12 +72100,15 @@
         <v>55.0</v>
       </c>
       <c r="DN199" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DO199" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -71864,12 +72459,15 @@
         <v>3.0</v>
       </c>
       <c r="DN200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DO200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -72220,12 +72818,15 @@
         <v>401.0</v>
       </c>
       <c r="DN201" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="DO201" t="n">
         <v>400.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -72577,11 +73178,14 @@
       </c>
       <c r="DN202" t="n">
         <v>1823.0</v>
+      </c>
+      <c r="DO202" t="n">
+        <v>1836.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -72933,11 +73537,14 @@
       </c>
       <c r="DN203" t="n">
         <v>480.0</v>
+      </c>
+      <c r="DO203" t="n">
+        <v>482.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -73289,11 +73896,14 @@
       </c>
       <c r="DN204" t="n">
         <v>1622.0</v>
+      </c>
+      <c r="DO204" t="n">
+        <v>1625.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -73644,12 +74254,15 @@
         <v>324.0</v>
       </c>
       <c r="DN205" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="DO205" t="n">
         <v>325.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -74000,12 +74613,15 @@
         <v>207.0</v>
       </c>
       <c r="DN206" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="DO206" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -74357,11 +74973,14 @@
       </c>
       <c r="DN207" t="n">
         <v>267.0</v>
+      </c>
+      <c r="DO207" t="n">
+        <v>270.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -74712,12 +75331,15 @@
         <v>943.0</v>
       </c>
       <c r="DN208" t="n">
+        <v>943.0</v>
+      </c>
+      <c r="DO208" t="n">
         <v>943.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -75068,12 +75690,15 @@
         <v>244.0</v>
       </c>
       <c r="DN209" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="DO209" t="n">
         <v>245.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -75424,12 +76049,15 @@
         <v>110.0</v>
       </c>
       <c r="DN210" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="DO210" t="n">
         <v>110.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -75780,12 +76408,15 @@
         <v>0.0</v>
       </c>
       <c r="DN211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -76136,12 +76767,15 @@
         <v>122.0</v>
       </c>
       <c r="DN212" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="DO212" t="n">
         <v>122.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -76493,11 +77127,14 @@
       </c>
       <c r="DN213" t="n">
         <v>658.0</v>
+      </c>
+      <c r="DO213" t="n">
+        <v>657.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -76849,11 +77486,14 @@
       </c>
       <c r="DN214" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DO214" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -77205,11 +77845,14 @@
       </c>
       <c r="DN215" t="n">
         <v>7803.0</v>
+      </c>
+      <c r="DO215" t="n">
+        <v>7840.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -77561,11 +78204,14 @@
       </c>
       <c r="DN216" t="n">
         <v>456.0</v>
+      </c>
+      <c r="DO216" t="n">
+        <v>457.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -77917,11 +78563,14 @@
       </c>
       <c r="DN217" t="n">
         <v>1491.0</v>
+      </c>
+      <c r="DO217" t="n">
+        <v>1490.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -78273,11 +78922,14 @@
       </c>
       <c r="DN218" t="n">
         <v>327.0</v>
+      </c>
+      <c r="DO218" t="n">
+        <v>329.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -78628,12 +79280,15 @@
         <v>57.0</v>
       </c>
       <c r="DN219" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DO219" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -78985,11 +79640,14 @@
       </c>
       <c r="DN220" t="n">
         <v>103.0</v>
+      </c>
+      <c r="DO220" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -79341,11 +79999,14 @@
       </c>
       <c r="DN221" t="n">
         <v>194.0</v>
+      </c>
+      <c r="DO221" t="n">
+        <v>193.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -79696,12 +80357,15 @@
         <v>355.0</v>
       </c>
       <c r="DN222" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="DO222" t="n">
         <v>358.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -80053,11 +80717,14 @@
       </c>
       <c r="DN223" t="n">
         <v>35395.0</v>
+      </c>
+      <c r="DO223" t="n">
+        <v>35666.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -80409,11 +81076,14 @@
       </c>
       <c r="DN224" t="n">
         <v>8078.0</v>
+      </c>
+      <c r="DO224" t="n">
+        <v>8086.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -80764,12 +81434,15 @@
         <v>11.0</v>
       </c>
       <c r="DN225" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DO225" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -81120,12 +81793,15 @@
         <v>0.0</v>
       </c>
       <c r="DN226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -81476,12 +82152,15 @@
         <v>23.0</v>
       </c>
       <c r="DN227" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DO227" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -81833,11 +82512,14 @@
       </c>
       <c r="DN228" t="n">
         <v>946.0</v>
+      </c>
+      <c r="DO228" t="n">
+        <v>944.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -82189,11 +82871,14 @@
       </c>
       <c r="DN229" t="n">
         <v>8012.0</v>
+      </c>
+      <c r="DO229" t="n">
+        <v>8020.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -82544,12 +83229,15 @@
         <v>0.0</v>
       </c>
       <c r="DN230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -82900,12 +83588,15 @@
         <v>186.0</v>
       </c>
       <c r="DN231" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="DO231" t="n">
         <v>187.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -83256,12 +83947,15 @@
         <v>666.0</v>
       </c>
       <c r="DN232" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="DO232" t="n">
         <v>667.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -83613,11 +84307,14 @@
       </c>
       <c r="DN233" t="n">
         <v>1844.0</v>
+      </c>
+      <c r="DO233" t="n">
+        <v>1848.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -83969,11 +84666,14 @@
       </c>
       <c r="DN234" t="n">
         <v>290.0</v>
+      </c>
+      <c r="DO234" t="n">
+        <v>305.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -84324,12 +85024,15 @@
         <v>114.0</v>
       </c>
       <c r="DN235" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="DO235" t="n">
         <v>114.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -84680,12 +85383,15 @@
         <v>0.0</v>
       </c>
       <c r="DN236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -85037,11 +85743,14 @@
       </c>
       <c r="DN237" t="n">
         <v>1464.0</v>
+      </c>
+      <c r="DO237" t="n">
+        <v>1471.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -85392,12 +86101,15 @@
         <v>9.0</v>
       </c>
       <c r="DN238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DO238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -85749,11 +86461,14 @@
       </c>
       <c r="DN239" t="n">
         <v>809.0</v>
+      </c>
+      <c r="DO239" t="n">
+        <v>818.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -86105,11 +86820,14 @@
       </c>
       <c r="DN240" t="n">
         <v>408.0</v>
+      </c>
+      <c r="DO240" t="n">
+        <v>412.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -86460,12 +87178,15 @@
         <v>464.0</v>
       </c>
       <c r="DN241" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="DO241" t="n">
         <v>465.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -86817,11 +87538,14 @@
       </c>
       <c r="DN242" t="n">
         <v>623.0</v>
+      </c>
+      <c r="DO242" t="n">
+        <v>629.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -87172,12 +87896,15 @@
         <v>0.0</v>
       </c>
       <c r="DN243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -87528,12 +88255,15 @@
         <v>379.0</v>
       </c>
       <c r="DN244" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="DO244" t="n">
         <v>389.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -87885,11 +88615,14 @@
       </c>
       <c r="DN245" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DO245" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -88240,12 +88973,15 @@
         <v>0.0</v>
       </c>
       <c r="DN246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -88596,12 +89332,15 @@
         <v>278.0</v>
       </c>
       <c r="DN247" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="DO247" t="n">
         <v>279.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -88953,11 +89692,14 @@
       </c>
       <c r="DN248" t="n">
         <v>158.0</v>
+      </c>
+      <c r="DO248" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -89308,12 +90050,15 @@
         <v>5059.0</v>
       </c>
       <c r="DN249" t="n">
+        <v>5059.0</v>
+      </c>
+      <c r="DO249" t="n">
         <v>5059.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -89665,11 +90410,14 @@
       </c>
       <c r="DN250" t="n">
         <v>1001.0</v>
+      </c>
+      <c r="DO250" t="n">
+        <v>1020.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -90020,12 +90768,15 @@
         <v>181.0</v>
       </c>
       <c r="DN251" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="DO251" t="n">
         <v>181.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -90377,11 +91128,14 @@
       </c>
       <c r="DN252" t="n">
         <v>1100.0</v>
+      </c>
+      <c r="DO252" t="n">
+        <v>1108.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -90733,11 +91487,14 @@
       </c>
       <c r="DN253" t="n">
         <v>1353.0</v>
+      </c>
+      <c r="DO253" t="n">
+        <v>1358.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -91088,12 +91845,15 @@
         <v>0.0</v>
       </c>
       <c r="DN254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -91444,12 +92204,15 @@
         <v>220.0</v>
       </c>
       <c r="DN255" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="DO255" t="n">
         <v>222.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -91801,11 +92564,14 @@
       </c>
       <c r="DN256" t="n">
         <v>200.0</v>
+      </c>
+      <c r="DO256" t="n">
+        <v>201.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -92156,6 +92922,9 @@
         <v>195.0</v>
       </c>
       <c r="DN257" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="DO257" t="n">
         <v>199.0</v>
       </c>
     </row>
